--- a/outputs-r202/test-c__Actinomycetia.xlsx
+++ b/outputs-r202/test-c__Actinomycetia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
   <si>
     <t>Row</t>
   </si>
@@ -94,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -104,14 +104,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -143,203 +147,203 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>2.2203159023515267e-14</v>
+        <v>2.2201742376949214e-14</v>
       </c>
       <c r="C2">
-        <v>0.99828621831427788</v>
+        <v>0.99763045093932023</v>
       </c>
       <c r="D2">
-        <v>2.2203159023515267e-14</v>
+        <v>2.3980766619013251e-13</v>
       </c>
       <c r="E2">
-        <v>0.0016803650709348488</v>
+        <v>0.001866614181071405</v>
       </c>
       <c r="F2">
-        <v>2.2203159023515267e-14</v>
+        <v>2.2201742376949214e-14</v>
       </c>
       <c r="G2">
-        <v>2.2203159023515267e-14</v>
+        <v>2.2201742376949214e-14</v>
       </c>
       <c r="H2">
-        <v>3.1761275637665859e-05</v>
+        <v>0.0001156174532811839</v>
       </c>
       <c r="I2">
-        <v>9.1901066199194709e-07</v>
+        <v>1.6069470289752201e-05</v>
       </c>
       <c r="J2">
-        <v>2.2203159023515267e-14</v>
+        <v>2.2201742376949214e-14</v>
       </c>
       <c r="K2">
-        <v>1.0815645237456426e-08</v>
+        <v>0.00036178289021314842</v>
       </c>
       <c r="L2">
-        <v>2.2203159023515267e-14</v>
+        <v>2.2201742376949214e-14</v>
       </c>
       <c r="M2">
-        <v>7.0680401910453098e-07</v>
+        <v>1.463025035912838e-07</v>
       </c>
       <c r="N2">
-        <v>2.2203159023515267e-14</v>
+        <v>9.2420551608197652e-06</v>
       </c>
       <c r="O2">
-        <v>1.8708667573520492e-08</v>
+        <v>7.670780894382763e-08</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>2.2203193679049058e-14</v>
+        <v>2.2203408632903228e-14</v>
       </c>
       <c r="C3">
-        <v>0.99769596335728539</v>
+        <v>0.99654627912238991</v>
       </c>
       <c r="D3">
-        <v>3.6287777559858174e-13</v>
+        <v>2.2203408632903228e-14</v>
       </c>
       <c r="E3">
-        <v>0.0018590059403223388</v>
+        <v>0.001800759284455028</v>
       </c>
       <c r="F3">
-        <v>2.2203193679049058e-14</v>
+        <v>2.2203408632903228e-14</v>
       </c>
       <c r="G3">
-        <v>2.2203193679049058e-14</v>
+        <v>2.2203408632903228e-14</v>
       </c>
       <c r="H3">
-        <v>0.00011266643110279418</v>
+        <v>0.0011000587600863262</v>
       </c>
       <c r="I3">
-        <v>8.7075478051488819e-06</v>
+        <v>4.4783593354931144e-06</v>
       </c>
       <c r="J3">
-        <v>2.2203193679049058e-14</v>
+        <v>2.2203408632903228e-14</v>
       </c>
       <c r="K3">
-        <v>0.00032269575994001951</v>
+        <v>3.5222114183589466e-05</v>
       </c>
       <c r="L3">
-        <v>2.2203193679049058e-14</v>
+        <v>1.2926940178133875e-10</v>
       </c>
       <c r="M3">
-        <v>4.386271967962742e-08</v>
+        <v>3.4782200218216915e-06</v>
       </c>
       <c r="N3">
-        <v>8.6819386474840314e-07</v>
+        <v>0.00050933273043534842</v>
       </c>
       <c r="O3">
-        <v>4.8906486133141507e-08</v>
+        <v>3.9127971180960352e-07</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+      <c r="A4" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>2.6444327808039161e-14</v>
+        <v>6.7795378534022177e-14</v>
       </c>
       <c r="C4">
-        <v>0.99507704089420435</v>
+        <v>0.05337913734121072</v>
       </c>
       <c r="D4">
-        <v>2.6444327808039173e-14</v>
+        <v>0.00010942098936004242</v>
       </c>
       <c r="E4">
-        <v>0.0021092493448988388</v>
+        <v>0.00588895144826163</v>
       </c>
       <c r="F4">
-        <v>2.6444327808039158e-14</v>
+        <v>6.7795378534022177e-14</v>
       </c>
       <c r="G4">
-        <v>2.6444327808039085e-14</v>
+        <v>6.7795378534022202e-14</v>
       </c>
       <c r="H4">
-        <v>0.0026142306397628177</v>
+        <v>0.23985248448421087</v>
       </c>
       <c r="I4">
-        <v>6.7177222882061005e-06</v>
+        <v>1.5997495558686703e-05</v>
       </c>
       <c r="J4">
-        <v>2.644432780803911e-14</v>
+        <v>6.7795378534022202e-14</v>
       </c>
       <c r="K4">
-        <v>5.0481608817528171e-05</v>
+        <v>0.0094818460294790706</v>
       </c>
       <c r="L4">
-        <v>1.870477319164432e-10</v>
+        <v>1.5230429056638817e-09</v>
       </c>
       <c r="M4">
-        <v>2.9367171898163612e-06</v>
+        <v>0.00047966956029276553</v>
       </c>
       <c r="N4">
-        <v>0.00013918822936418254</v>
+        <v>0.0011120287661289217</v>
       </c>
       <c r="O4">
-        <v>1.5465629431372363e-07</v>
+        <v>0.68968046236218328</v>
       </c>
       <c r="P4">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
